--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1090.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1090.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.179597246525934</v>
+        <v>1.178490877151489</v>
       </c>
       <c r="B1">
-        <v>2.413160278511179</v>
+        <v>2.416741847991943</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.763716325003255</v>
+        <v>2.332604646682739</v>
       </c>
       <c r="E1">
-        <v>1.16583986406105</v>
+        <v>1.197142362594604</v>
       </c>
     </row>
   </sheetData>
